--- a/src/test/resources/dataprovider/TestData.xlsx
+++ b/src/test/resources/dataprovider/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sures\Desktop\cucumber\src\test\resources\dataprovider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sures\Desktop\testngwithlatest\src\test\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4699A-187A-4E4B-B622-3D937CBD7D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD2B26-BC09-4141-A55F-D0B5BDDB0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Scenario</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>lastRow</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dataprovider/TestData.xlsx
+++ b/src/test/resources/dataprovider/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sures\Desktop\testngwithlatest\src\test\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD2B26-BC09-4141-A55F-D0B5BDDB0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D27FF-41EF-4764-B7F9-DE39EA7A908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOLD" sheetId="1" r:id="rId1"/>
+    <sheet name="CITIBANK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Scenario</t>
   </si>
@@ -61,6 +62,48 @@
   </si>
   <si>
     <t>lastRow</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>brokerageAcctNumber</t>
+  </si>
+  <si>
+    <t>ssn</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>Citi Bank Registration</t>
+  </si>
+  <si>
+    <t>https://citibank.com</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>635448952</t>
+  </si>
+  <si>
+    <t>448569254</t>
+  </si>
+  <si>
+    <t>11/12/1992</t>
+  </si>
+  <si>
+    <t>10/10/1995</t>
   </si>
 </sst>
 </file>
@@ -96,8 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,4 +507,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CD20E4-7835-45B5-A7D5-D2EB5BB0434B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>